--- a/5.Other/CK/Chiết-Khấu-tháng-11-2024.xlsx
+++ b/5.Other/CK/Chiết-Khấu-tháng-11-2024.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E79A0B-3B7E-46AF-BD9E-1B3D8249DD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AED866-D525-4A36-AF53-939E67C22917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,9 +197,6 @@
     <t>TP.Phát triển sản phẩm</t>
   </si>
   <si>
-    <t>TG102LE-4G</t>
-  </si>
-  <si>
     <t>Tồn lỗi</t>
   </si>
   <si>
@@ -270,6 +267,9 @@
   </si>
   <si>
     <t>Lô 5-2024</t>
+  </si>
+  <si>
+    <t>TG102LE-4G(0077)</t>
   </si>
 </sst>
 </file>
@@ -772,21 +772,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -820,14 +805,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -865,113 +856,122 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1545,7 +1545,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,55 +1559,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="89" t="s">
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="86" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
+      <c r="A4" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="91" t="str">
+      <c r="E5" s="86" t="str">
         <f>'Phieu Tinh CK'!E6:H6</f>
         <v>Hà Nội, Ngày 30 Tháng 11 Năm 2024</v>
       </c>
-      <c r="F5" s="91"/>
+      <c r="F5" s="86"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
@@ -1618,13 +1618,13 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1670,20 +1670,20 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C11" s="5">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="D11" s="16">
         <v>6000</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" ref="E11:E15" si="0">C11*D11</f>
-        <v>750000</v>
+        <v>1050000</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1691,20 +1691,20 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="5">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="D12" s="16">
         <v>6000</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" si="0"/>
-        <v>612000</v>
+        <v>1056000</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1712,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="5">
         <v>101</v>
@@ -1731,7 +1731,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1752,45 +1752,45 @@
         <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="5">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="D15" s="16">
         <v>3000</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" si="0"/>
-        <v>1050000</v>
+        <v>1350000</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="78"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="47">
         <f>SUM(C11:C15)</f>
-        <v>678</v>
+        <v>902</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="73">
         <f>SUM(E11:E15)</f>
-        <v>3018000</v>
+        <v>4062000</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -1811,14 +1811,14 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80" t="s">
+      <c r="B20" s="91"/>
+      <c r="C20" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="80"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="68" t="s">
         <v>57</v>
       </c>
@@ -1827,14 +1827,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81" t="s">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="81"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="39" t="s">
         <v>30</v>
       </c>
@@ -1875,14 +1875,14 @@
       <c r="F25" s="42"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80" t="s">
+      <c r="B26" s="91"/>
+      <c r="C26" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="80"/>
+      <c r="D26" s="91"/>
       <c r="E26" s="68" t="s">
         <v>56</v>
       </c>
@@ -1924,13 +1924,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A20:B20"/>
@@ -1939,6 +1932,13 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1951,7 +1951,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,62 +1973,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="94"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="86" t="s">
+      <c r="A1" s="105"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="86" t="s">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="88"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="83" t="s">
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
     </row>
     <row r="5" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
+      <c r="C5" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
@@ -2037,12 +2037,12 @@
       <c r="B6" s="18"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="104" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
+      <c r="E6" s="101" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
     </row>
     <row r="7" spans="1:8" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
@@ -2063,15 +2063,15 @@
       <c r="B9" s="24"/>
       <c r="C9" s="25">
         <f>'Bang Tinh CK'!E17</f>
-        <v>3018000</v>
+        <v>4062000</v>
       </c>
       <c r="D9" s="35"/>
     </row>
     <row r="10" spans="1:8" s="17" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="100"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="25">
         <v>4</v>
       </c>
@@ -2088,10 +2088,10 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:8" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="107"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="4">
         <f>COUNTIFS(C15:C20, "&gt;=2.5",C15:C20,"&lt;7")</f>
         <v>0</v>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="E15" s="19">
         <f>($C$9*D15)/$D$19</f>
-        <v>794210.52631578944</v>
+        <v>1068947.3684210526</v>
       </c>
       <c r="F15" s="16">
         <v>0</v>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="H15" s="16">
         <f>((E15-F15)+($F$21/10))-G15</f>
-        <v>794210.52631578944</v>
+        <v>1068947.3684210526</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2166,14 +2166,14 @@
         <v>35</v>
       </c>
       <c r="C16" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="36">
         <v>80</v>
       </c>
       <c r="E16" s="19">
         <f>($C$9*D16)/$D$19</f>
-        <v>635368.42105263157</v>
+        <v>855157.89473684214</v>
       </c>
       <c r="F16" s="16">
         <v>0</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="H16" s="16">
         <f>((E16-F16)+($F$21/10))-G16</f>
-        <v>635368.42105263157</v>
+        <v>855157.89473684214</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2191,17 +2191,17 @@
         <v>3</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D17" s="36">
         <v>100</v>
       </c>
       <c r="E17" s="19">
         <f>($C$9*D17)/$D$19</f>
-        <v>794210.52631578944</v>
+        <v>1068947.3684210526</v>
       </c>
       <c r="F17" s="16">
         <v>0</v>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="H17" s="16">
         <f>((E17-F17)+($F$21/10))-G17</f>
-        <v>794210.52631578944</v>
+        <v>1068947.3684210526</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2219,17 +2219,17 @@
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="36">
         <v>100</v>
       </c>
       <c r="E18" s="19">
         <f>($C$9*D18)/$D$19</f>
-        <v>794210.52631578944</v>
+        <v>1068947.3684210526</v>
       </c>
       <c r="F18" s="16">
         <v>0</v>
@@ -2239,15 +2239,15 @@
       </c>
       <c r="H18" s="16">
         <f>((E18-F18)+($F$21/10))-G18</f>
-        <v>794210.52631578944</v>
+        <v>1068947.3684210526</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="100"/>
       <c r="D19" s="32">
         <f>SUM(D15:D18)</f>
         <v>380</v>
@@ -2280,15 +2280,15 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="34"/>
       <c r="E21" s="21">
         <f>SUM(E15:E18)</f>
-        <v>3018000</v>
+        <v>4062000</v>
       </c>
       <c r="F21" s="21">
         <f>SUM(F15:F20)</f>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="H21" s="21">
         <f>SUM(H15:H20)</f>
-        <v>3018000</v>
+        <v>4062000</v>
       </c>
       <c r="J21" s="26"/>
     </row>
@@ -2310,10 +2310,10 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="80"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="31" t="s">
         <v>27</v>
       </c>
@@ -2322,16 +2322,16 @@
         <v>57</v>
       </c>
       <c r="F24" s="38"/>
-      <c r="G24" s="93" t="s">
+      <c r="G24" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="93"/>
+      <c r="H24" s="107"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="81"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="39" t="s">
         <v>30</v>
       </c>
@@ -2339,10 +2339,10 @@
       <c r="E25" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="81" t="s">
+      <c r="G25" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="81"/>
+      <c r="H25" s="92"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
@@ -2361,10 +2361,10 @@
       <c r="B29" s="42"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="80"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="31" t="s">
         <v>28</v>
       </c>
@@ -2373,35 +2373,35 @@
         <v>56</v>
       </c>
       <c r="F30" s="38"/>
-      <c r="G30" s="93" t="s">
+      <c r="G30" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="93"/>
+      <c r="H30" s="107"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:H4"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0.74803149606299213" bottom="0" header="0" footer="0"/>
   <pageSetup scale="76" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
@@ -2417,7 +2417,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2434,58 +2434,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133"/>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="134" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="143" t="s">
+      <c r="A1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="144"/>
+      <c r="I1" s="119"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="133"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="143" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="144"/>
+      <c r="I2" s="119"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="133"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="143" t="s">
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="144"/>
+      <c r="I3" s="119"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
+      <c r="A4" s="131" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
@@ -2525,27 +2525,27 @@
       <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="126" t="s">
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="127"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
-      <c r="B9" s="122"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="58" t="s">
         <v>46</v>
       </c>
@@ -2558,16 +2558,16 @@
       <c r="F9" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="129"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="131"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="130"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
         <v>1</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="61">
         <v>3000</v>
@@ -2576,17 +2576,17 @@
         <v>326</v>
       </c>
       <c r="E10" s="61">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="F10" s="62">
         <f>D10-E10</f>
-        <v>201</v>
-      </c>
-      <c r="G10" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="110"/>
+        <v>151</v>
+      </c>
+      <c r="G10" s="137" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="138"/>
+      <c r="I10" s="139"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
@@ -2608,18 +2608,18 @@
         <f>D11-E11</f>
         <v>142</v>
       </c>
-      <c r="G11" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="109"/>
-      <c r="I11" s="110"/>
+      <c r="G11" s="137" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="138"/>
+      <c r="I11" s="139"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="59">
         <v>3</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="61">
         <v>1998</v>
@@ -2628,24 +2628,24 @@
         <v>1332</v>
       </c>
       <c r="E12" s="61">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="F12" s="62">
         <f>D12-E12</f>
-        <v>982</v>
-      </c>
-      <c r="G12" s="108" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="109"/>
-      <c r="I12" s="110"/>
+        <v>882</v>
+      </c>
+      <c r="G12" s="137" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="138"/>
+      <c r="I12" s="139"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="59">
         <v>4</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="61">
         <v>101</v>
@@ -2659,11 +2659,11 @@
       <c r="F13" s="62">
         <v>0</v>
       </c>
-      <c r="G13" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="109"/>
-      <c r="I13" s="110"/>
+      <c r="G13" s="137" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="138"/>
+      <c r="I13" s="139"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="59">
@@ -2685,11 +2685,11 @@
         <f t="shared" ref="F14" si="0">D14</f>
         <v>178</v>
       </c>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="109"/>
-      <c r="I14" s="110"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="139"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="59">
@@ -2711,11 +2711,11 @@
         <f>D15-E15</f>
         <v>52</v>
       </c>
-      <c r="G15" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="109"/>
-      <c r="I15" s="110"/>
+      <c r="G15" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="138"/>
+      <c r="I15" s="139"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="59">
@@ -2737,18 +2737,18 @@
         <f>D16-E16</f>
         <v>22</v>
       </c>
-      <c r="G16" s="108" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="109"/>
-      <c r="I16" s="110"/>
+      <c r="G16" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="138"/>
+      <c r="I16" s="139"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="59">
         <v>8</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="61">
         <v>30</v>
@@ -2763,18 +2763,18 @@
         <f>D17-E17</f>
         <v>2</v>
       </c>
-      <c r="G17" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="109"/>
-      <c r="I17" s="110"/>
+      <c r="G17" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="59">
         <v>9</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="61">
         <v>30</v>
@@ -2788,34 +2788,34 @@
       <c r="F18" s="62">
         <v>3</v>
       </c>
-      <c r="G18" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="109"/>
-      <c r="I18" s="110"/>
+      <c r="G18" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="138"/>
+      <c r="I18" s="139"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="59">
         <v>10</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="61"/>
       <c r="D19" s="61"/>
       <c r="E19" s="61">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="F19" s="62"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="110"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="139"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="113"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="64">
         <f>SUM(C10:C19)</f>
         <v>6059</v>
@@ -2826,15 +2826,15 @@
       </c>
       <c r="E20" s="64">
         <f>SUM(E10:E19)</f>
-        <v>678</v>
+        <v>902</v>
       </c>
       <c r="F20" s="64">
         <f>SUM(F10:F19)</f>
-        <v>1582</v>
-      </c>
-      <c r="G20" s="114"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="116"/>
+        <v>1432</v>
+      </c>
+      <c r="G20" s="142"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="144"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
@@ -2848,23 +2848,23 @@
       <c r="I21" s="56"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="120" t="s">
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="120"/>
-      <c r="F22" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117" t="s">
+      <c r="E22" s="136"/>
+      <c r="F22" s="133" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="117"/>
+      <c r="I22" s="133"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="65"/>
@@ -2889,45 +2889,45 @@
       <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="119"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="71"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
       <c r="G25" s="65"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="111"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
+      <c r="A26" s="135"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
       <c r="D26" s="67"/>
       <c r="E26" s="67"/>
       <c r="F26" s="69"/>
       <c r="G26" s="69"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="111" t="s">
+      <c r="A27" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
       <c r="D27" s="69" t="s">
         <v>56</v>
       </c>
       <c r="E27" s="67"/>
       <c r="F27" s="69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27" s="69"/>
-      <c r="H27" s="111" t="s">
+      <c r="H27" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="111"/>
+      <c r="I27" s="135"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
@@ -2941,39 +2941,18 @@
       <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="118"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="118"/>
+      <c r="A29" s="132"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
       <c r="D29" s="70"/>
       <c r="E29" s="56"/>
       <c r="F29" s="56"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="118"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:G3"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:I9"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="H25:I25"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
@@ -2988,6 +2967,27 @@
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:G3"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
